--- a/Results/Video Game Ontology/Candidate CQs/P2_GPT4_Video_game.xlsx
+++ b/Results/Video Game Ontology/Candidate CQs/P2_GPT4_Video_game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psralha4\Documents\RETROFIT-CQs\RETROFIT-CQs\Results\Video Game Ontology\Candidate CQs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299605EB-6777-4C1D-AA72-EE485C318BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504BB095-1A43-4BAE-9AC7-B93A1CB70AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2792,10 +2792,6 @@
     <t xml:space="preserve"> Is Thing a superclass of Leaderboard</t>
   </si>
   <si>
-    <t xml:space="preserve"> List all subclasses of Achievement.
-6. What kind of relationship exists between HardMode and Achievement</t>
-  </si>
-  <si>
     <t>Who are the entries in the Leaderboard</t>
   </si>
   <si>
@@ -4812,6 +4808,10 @@
   <si>
     <t xml:space="preserve">
 How many points does Player1 have</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List all subclasses of Achievement.
+</t>
   </si>
 </sst>
 </file>
@@ -5165,8 +5165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1592"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1566" workbookViewId="0">
-      <selection activeCell="A1592" sqref="A1592"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A826" sqref="A826"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -5202,12 +5202,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -5217,12 +5217,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -5232,7 +5232,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -5257,7 +5257,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -5297,7 +5297,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -5307,7 +5307,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -5332,7 +5332,7 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -5342,22 +5342,22 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -5377,7 +5377,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -5392,12 +5392,12 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
@@ -5407,7 +5407,7 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
@@ -5417,7 +5417,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
@@ -5452,7 +5452,7 @@
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -5472,7 +5472,7 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -5482,7 +5482,7 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
@@ -5492,7 +5492,7 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
@@ -5502,12 +5502,12 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
@@ -5517,22 +5517,22 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
@@ -5547,37 +5547,37 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -5592,7 +5592,7 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
@@ -5602,7 +5602,7 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
@@ -5617,7 +5617,7 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -5627,7 +5627,7 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
@@ -5642,22 +5642,22 @@
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
@@ -5667,7 +5667,7 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
@@ -5697,7 +5697,7 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
@@ -5707,7 +5707,7 @@
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
@@ -5717,32 +5717,32 @@
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
@@ -5752,7 +5752,7 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -5767,7 +5767,7 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
@@ -5782,12 +5782,12 @@
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
@@ -5807,12 +5807,12 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
@@ -5832,37 +5832,37 @@
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
@@ -5872,7 +5872,7 @@
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
@@ -5882,32 +5882,32 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
@@ -5922,7 +5922,7 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
@@ -5932,7 +5932,7 @@
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
@@ -5942,7 +5942,7 @@
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
@@ -5957,22 +5957,22 @@
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
@@ -5992,7 +5992,7 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
@@ -6002,7 +6002,7 @@
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
@@ -6017,27 +6017,27 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
@@ -6047,12 +6047,12 @@
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
@@ -6072,22 +6072,22 @@
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
@@ -6097,12 +6097,12 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
@@ -6112,7 +6112,7 @@
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
@@ -6122,7 +6122,7 @@
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
@@ -6142,12 +6142,12 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
@@ -6157,7 +6157,7 @@
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
@@ -6172,7 +6172,7 @@
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
@@ -6187,22 +6187,22 @@
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
@@ -6217,17 +6217,17 @@
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
@@ -6242,12 +6242,12 @@
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
@@ -6267,7 +6267,7 @@
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
@@ -6277,12 +6277,12 @@
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
@@ -6292,12 +6292,12 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
@@ -6312,12 +6312,12 @@
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
@@ -6327,17 +6327,17 @@
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
@@ -6347,27 +6347,27 @@
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
@@ -6377,7 +6377,7 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
@@ -6387,7 +6387,7 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
@@ -6397,17 +6397,17 @@
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
@@ -6417,12 +6417,12 @@
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
@@ -6432,7 +6432,7 @@
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
@@ -6442,7 +6442,7 @@
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
@@ -6482,12 +6482,12 @@
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
@@ -6497,22 +6497,22 @@
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
@@ -6522,17 +6522,17 @@
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
@@ -6542,12 +6542,12 @@
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
@@ -6557,12 +6557,12 @@
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
@@ -6587,7 +6587,7 @@
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
@@ -6597,17 +6597,17 @@
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
@@ -6627,7 +6627,7 @@
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
@@ -6637,7 +6637,7 @@
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
@@ -6647,7 +6647,7 @@
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
@@ -6667,7 +6667,7 @@
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
@@ -6687,7 +6687,7 @@
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
@@ -6702,7 +6702,7 @@
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
@@ -6712,27 +6712,27 @@
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
@@ -6757,12 +6757,12 @@
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
@@ -6772,7 +6772,7 @@
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
@@ -6782,12 +6782,12 @@
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
@@ -6822,12 +6822,12 @@
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
@@ -6852,12 +6852,12 @@
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
@@ -6872,12 +6872,12 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
@@ -6887,7 +6887,7 @@
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
@@ -6917,12 +6917,12 @@
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
@@ -6932,7 +6932,7 @@
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
@@ -6947,32 +6947,32 @@
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
@@ -6982,12 +6982,12 @@
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
@@ -6997,12 +6997,12 @@
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
@@ -7012,17 +7012,17 @@
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
@@ -7047,22 +7047,22 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
@@ -7077,7 +7077,7 @@
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
@@ -7087,7 +7087,7 @@
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
@@ -7102,7 +7102,7 @@
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
@@ -7112,7 +7112,7 @@
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
@@ -7122,7 +7122,7 @@
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
@@ -7142,7 +7142,7 @@
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
@@ -7152,37 +7152,37 @@
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
@@ -7192,7 +7192,7 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
@@ -7202,7 +7202,7 @@
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
@@ -7212,12 +7212,12 @@
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
@@ -7227,7 +7227,7 @@
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
@@ -7237,12 +7237,12 @@
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
@@ -7257,12 +7257,12 @@
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
@@ -7312,27 +7312,27 @@
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
@@ -7362,27 +7362,27 @@
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
@@ -7392,7 +7392,7 @@
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
@@ -7412,7 +7412,7 @@
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
@@ -7422,7 +7422,7 @@
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
@@ -7432,17 +7432,17 @@
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
@@ -7452,17 +7452,17 @@
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
@@ -7482,7 +7482,7 @@
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
@@ -7517,17 +7517,17 @@
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
@@ -7537,7 +7537,7 @@
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
@@ -7552,7 +7552,7 @@
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
@@ -7562,7 +7562,7 @@
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
@@ -7572,12 +7572,12 @@
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
@@ -7612,12 +7612,12 @@
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
@@ -7627,7 +7627,7 @@
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
@@ -7652,12 +7652,12 @@
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
@@ -7692,12 +7692,12 @@
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
@@ -7722,12 +7722,12 @@
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
@@ -7747,7 +7747,7 @@
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
@@ -7777,7 +7777,7 @@
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
@@ -7792,12 +7792,12 @@
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
@@ -7827,12 +7827,12 @@
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
@@ -7842,7 +7842,7 @@
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
@@ -7867,27 +7867,27 @@
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
@@ -7932,12 +7932,12 @@
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
@@ -7952,7 +7952,7 @@
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
@@ -7972,7 +7972,7 @@
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
@@ -7987,12 +7987,12 @@
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
@@ -8002,27 +8002,27 @@
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
@@ -8032,12 +8032,12 @@
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
@@ -8052,17 +8052,17 @@
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
@@ -8072,7 +8072,7 @@
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
@@ -8082,7 +8082,7 @@
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
@@ -8122,17 +8122,17 @@
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
@@ -8142,12 +8142,12 @@
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
@@ -8157,12 +8157,12 @@
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
@@ -8172,22 +8172,22 @@
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
@@ -8197,17 +8197,17 @@
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
@@ -8232,7 +8232,7 @@
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
@@ -8247,22 +8247,22 @@
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
@@ -8272,7 +8272,7 @@
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
@@ -8282,22 +8282,22 @@
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
@@ -8332,17 +8332,17 @@
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
@@ -8352,7 +8352,7 @@
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
@@ -8367,12 +8367,12 @@
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
@@ -8387,7 +8387,7 @@
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
@@ -8397,7 +8397,7 @@
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
@@ -8432,12 +8432,12 @@
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
@@ -8452,7 +8452,7 @@
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
@@ -8472,22 +8472,22 @@
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
@@ -8497,22 +8497,22 @@
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
@@ -8532,12 +8532,12 @@
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
@@ -8552,32 +8552,32 @@
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
@@ -8587,12 +8587,12 @@
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
@@ -8607,22 +8607,22 @@
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
@@ -8632,7 +8632,7 @@
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
@@ -8642,7 +8642,7 @@
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
@@ -8657,27 +8657,27 @@
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
@@ -8687,7 +8687,7 @@
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
@@ -8702,27 +8702,27 @@
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
@@ -8737,22 +8737,22 @@
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
@@ -8762,7 +8762,7 @@
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
@@ -8772,7 +8772,7 @@
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
@@ -8807,17 +8807,17 @@
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
@@ -8827,7 +8827,7 @@
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
@@ -8842,7 +8842,7 @@
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
@@ -8852,17 +8852,17 @@
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
@@ -8882,17 +8882,17 @@
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
@@ -8912,22 +8912,22 @@
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
@@ -8937,7 +8937,7 @@
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
@@ -8967,12 +8967,12 @@
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
@@ -8997,12 +8997,12 @@
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
@@ -9027,7 +9027,7 @@
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
@@ -9042,27 +9042,27 @@
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
@@ -9077,7 +9077,7 @@
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
@@ -9097,12 +9097,12 @@
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
@@ -9117,12 +9117,12 @@
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
@@ -9137,12 +9137,12 @@
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
@@ -9157,27 +9157,27 @@
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
@@ -9187,17 +9187,17 @@
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
@@ -9212,7 +9212,7 @@
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
@@ -9227,22 +9227,22 @@
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
@@ -9252,7 +9252,7 @@
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
@@ -9267,7 +9267,7 @@
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
@@ -9287,7 +9287,7 @@
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
@@ -9297,38 +9297,38 @@
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="827" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A827" s="1" t="s">
-        <v>1576</v>
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>1575</v>
       </c>
       <c r="B827" s="1"/>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.25">
@@ -9338,27 +9338,27 @@
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
@@ -9373,7 +9373,7 @@
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
@@ -9383,7 +9383,7 @@
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
@@ -9403,7 +9403,7 @@
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
@@ -9428,7 +9428,7 @@
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
@@ -9458,12 +9458,12 @@
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
@@ -9473,12 +9473,12 @@
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
@@ -9493,27 +9493,27 @@
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
@@ -9538,7 +9538,7 @@
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
@@ -9548,7 +9548,7 @@
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
@@ -9563,17 +9563,17 @@
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
@@ -9583,7 +9583,7 @@
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
@@ -9593,7 +9593,7 @@
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
@@ -9603,12 +9603,12 @@
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
@@ -9623,12 +9623,12 @@
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
@@ -9638,7 +9638,7 @@
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
@@ -9648,7 +9648,7 @@
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
@@ -9658,7 +9658,7 @@
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
@@ -9668,12 +9668,12 @@
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
@@ -9683,12 +9683,12 @@
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
@@ -9708,7 +9708,7 @@
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
@@ -9718,7 +9718,7 @@
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
@@ -9733,12 +9733,12 @@
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
@@ -9753,7 +9753,7 @@
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
@@ -9768,17 +9768,17 @@
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
@@ -9798,12 +9798,12 @@
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
@@ -9813,7 +9813,7 @@
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
@@ -9828,7 +9828,7 @@
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
@@ -9838,7 +9838,7 @@
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
@@ -9853,7 +9853,7 @@
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
@@ -9863,7 +9863,7 @@
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
@@ -9883,12 +9883,12 @@
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
@@ -9898,7 +9898,7 @@
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
@@ -9918,32 +9918,32 @@
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
@@ -9953,12 +9953,12 @@
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
@@ -9973,7 +9973,7 @@
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
@@ -9983,7 +9983,7 @@
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
@@ -9993,7 +9993,7 @@
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
@@ -10003,7 +10003,7 @@
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
@@ -10028,12 +10028,12 @@
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
@@ -10068,7 +10068,7 @@
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
@@ -10113,17 +10113,17 @@
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
@@ -10133,17 +10133,17 @@
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
@@ -10178,7 +10178,7 @@
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
@@ -10193,7 +10193,7 @@
     </row>
     <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
@@ -10203,7 +10203,7 @@
     </row>
     <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
@@ -10218,12 +10218,12 @@
     </row>
     <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
@@ -10233,12 +10233,12 @@
     </row>
     <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
@@ -10253,7 +10253,7 @@
     </row>
     <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
@@ -10263,7 +10263,7 @@
     </row>
     <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
@@ -10273,7 +10273,7 @@
     </row>
     <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
@@ -10283,12 +10283,12 @@
     </row>
     <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
@@ -10298,12 +10298,12 @@
     </row>
     <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
@@ -10313,17 +10313,17 @@
     </row>
     <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
@@ -10348,7 +10348,7 @@
     </row>
     <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
@@ -10358,7 +10358,7 @@
     </row>
     <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
@@ -10373,17 +10373,17 @@
     </row>
     <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
@@ -10398,17 +10398,17 @@
     </row>
     <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
@@ -10423,7 +10423,7 @@
     </row>
     <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
@@ -10433,7 +10433,7 @@
     </row>
     <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
@@ -10453,37 +10453,37 @@
     </row>
     <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
@@ -10493,7 +10493,7 @@
     </row>
     <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
@@ -10508,17 +10508,17 @@
     </row>
     <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
@@ -10538,7 +10538,7 @@
     </row>
     <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
@@ -10548,12 +10548,12 @@
     </row>
     <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
@@ -10578,7 +10578,7 @@
     </row>
     <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
@@ -10588,22 +10588,22 @@
     </row>
     <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
@@ -10613,7 +10613,7 @@
     </row>
     <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
@@ -10628,22 +10628,22 @@
     </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1094" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
@@ -10658,7 +10658,7 @@
     </row>
     <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
@@ -10668,12 +10668,12 @@
     </row>
     <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
@@ -10683,17 +10683,17 @@
     </row>
     <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1103" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
@@ -10703,12 +10703,12 @@
     </row>
     <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1107" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
@@ -10718,12 +10718,12 @@
     </row>
     <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1110" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
@@ -10733,7 +10733,7 @@
     </row>
     <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
@@ -10743,12 +10743,12 @@
     </row>
     <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
@@ -10758,7 +10758,7 @@
     </row>
     <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1117" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
@@ -10773,12 +10773,12 @@
     </row>
     <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1120" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
@@ -10793,7 +10793,7 @@
     </row>
     <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
@@ -10803,7 +10803,7 @@
     </row>
     <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1126" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
@@ -10818,27 +10818,27 @@
     </row>
     <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1129" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1130" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1131" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
@@ -10848,7 +10848,7 @@
     </row>
     <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
@@ -10858,7 +10858,7 @@
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
@@ -10873,17 +10873,17 @@
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1141" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
@@ -10893,7 +10893,7 @@
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
@@ -10903,7 +10903,7 @@
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1146" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
@@ -10913,17 +10913,17 @@
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
@@ -10958,17 +10958,17 @@
     </row>
     <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
@@ -10978,7 +10978,7 @@
     </row>
     <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
@@ -10988,7 +10988,7 @@
     </row>
     <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
@@ -10998,17 +10998,17 @@
     </row>
     <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1166" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1167" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
@@ -11028,7 +11028,7 @@
     </row>
     <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
@@ -11043,7 +11043,7 @@
     </row>
     <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
@@ -11073,12 +11073,12 @@
     </row>
     <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
@@ -11088,27 +11088,27 @@
     </row>
     <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
@@ -11118,12 +11118,12 @@
     </row>
     <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1189" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
@@ -11133,7 +11133,7 @@
     </row>
     <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
@@ -11143,12 +11143,12 @@
     </row>
     <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
@@ -11188,7 +11188,7 @@
     </row>
     <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
@@ -11198,17 +11198,17 @@
     </row>
     <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
@@ -11223,7 +11223,7 @@
     </row>
     <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
@@ -11238,7 +11238,7 @@
     </row>
     <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
@@ -11248,17 +11248,17 @@
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
@@ -11268,17 +11268,17 @@
     </row>
     <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
@@ -11298,7 +11298,7 @@
     </row>
     <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
@@ -11308,42 +11308,42 @@
     </row>
     <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1227" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1230" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1234" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
@@ -11358,17 +11358,17 @@
     </row>
     <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
@@ -11383,17 +11383,17 @@
     </row>
     <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
@@ -11403,12 +11403,12 @@
     </row>
     <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1247" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
@@ -11423,12 +11423,12 @@
     </row>
     <row r="1250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1251" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1252" spans="1:1" x14ac:dyDescent="0.25">
@@ -11438,27 +11438,27 @@
     </row>
     <row r="1253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1256" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="1257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1257" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="1258" spans="1:1" x14ac:dyDescent="0.25">
@@ -11483,12 +11483,12 @@
     </row>
     <row r="1262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="1263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1264" spans="1:1" x14ac:dyDescent="0.25">
@@ -11528,17 +11528,17 @@
     </row>
     <row r="1271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1271" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1272" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1274" spans="1:1" x14ac:dyDescent="0.25">
@@ -11548,12 +11548,12 @@
     </row>
     <row r="1275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1275" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1276" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1277" spans="1:1" x14ac:dyDescent="0.25">
@@ -11573,7 +11573,7 @@
     </row>
     <row r="1280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1280" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="1281" spans="1:1" x14ac:dyDescent="0.25">
@@ -11583,7 +11583,7 @@
     </row>
     <row r="1282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1282" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1283" spans="1:1" x14ac:dyDescent="0.25">
@@ -11593,17 +11593,17 @@
     </row>
     <row r="1284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="1285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="1286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1287" spans="1:1" x14ac:dyDescent="0.25">
@@ -11613,7 +11613,7 @@
     </row>
     <row r="1288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1288" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1289" spans="1:1" x14ac:dyDescent="0.25">
@@ -11628,7 +11628,7 @@
     </row>
     <row r="1291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1291" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1292" spans="1:1" x14ac:dyDescent="0.25">
@@ -11643,7 +11643,7 @@
     </row>
     <row r="1294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1294" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1295" spans="1:1" x14ac:dyDescent="0.25">
@@ -11658,17 +11658,17 @@
     </row>
     <row r="1297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1297" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1299" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="1300" spans="1:1" x14ac:dyDescent="0.25">
@@ -11678,12 +11678,12 @@
     </row>
     <row r="1301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1301" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1302" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1303" spans="1:1" x14ac:dyDescent="0.25">
@@ -11698,7 +11698,7 @@
     </row>
     <row r="1305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1305" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1306" spans="1:1" x14ac:dyDescent="0.25">
@@ -11718,7 +11718,7 @@
     </row>
     <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1309" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
@@ -11728,7 +11728,7 @@
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1311" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
@@ -11788,42 +11788,42 @@
     </row>
     <row r="1323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1323" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="1324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1324" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1325" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1326" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="1328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1329" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="1330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1330" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="1331" spans="1:1" x14ac:dyDescent="0.25">
@@ -11923,17 +11923,17 @@
     </row>
     <row r="1350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1350" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1351" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1352" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1353" spans="1:1" x14ac:dyDescent="0.25">
@@ -11953,17 +11953,17 @@
     </row>
     <row r="1356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1356" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="1358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1358" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
@@ -11983,12 +11983,12 @@
     </row>
     <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1362" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1363" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="1364" spans="1:1" x14ac:dyDescent="0.25">
@@ -11998,7 +11998,7 @@
     </row>
     <row r="1365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="1366" spans="1:1" x14ac:dyDescent="0.25">
@@ -12008,7 +12008,7 @@
     </row>
     <row r="1367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1367" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1368" spans="1:1" x14ac:dyDescent="0.25">
